--- a/Salary/Salry Labor.xlsx
+++ b/Salary/Salry Labor.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Salary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF02AA13-03D8-4239-957A-2E4D1C6F2CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27F9DA2-9186-471D-811B-8A8CD6F8B9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Labor " sheetId="1" r:id="rId1"/>
+    <sheet name="Staff " sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$2:$H$38</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Labor '!$A$2:$H$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t xml:space="preserve">Sr </t>
   </si>
@@ -164,6 +164,42 @@
   </si>
   <si>
     <t>Total Paybel</t>
+  </si>
+  <si>
+    <t>Sr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.Days </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salry Payabel </t>
+  </si>
+  <si>
+    <t>Shakeel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mending </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Salry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasir </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Checker </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashraf Lona </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asmat </t>
   </si>
 </sst>
 </file>
@@ -527,36 +563,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -582,18 +630,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -878,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -897,63 +933,63 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>26500</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="8">
         <v>16</v>
       </c>
-      <c r="G3" s="13">
-        <f>E3/31*1.5</f>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:G10" si="0">E3/31*1.5</f>
         <v>1282.258064516129</v>
       </c>
-      <c r="H3" s="28">
+      <c r="H3" s="16">
         <f>E3/31*F3+G3</f>
         <v>14959.677419354839</v>
       </c>
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="20"/>
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -969,18 +1005,18 @@
       <c r="F4" s="7">
         <v>16</v>
       </c>
-      <c r="G4" s="14">
-        <f>E4/31*1.5</f>
+      <c r="G4" s="11">
+        <f t="shared" si="0"/>
         <v>1137.0967741935485</v>
       </c>
-      <c r="H4" s="29">
-        <f t="shared" ref="H4:H14" si="0">E4/31*F4+G4</f>
+      <c r="H4" s="17">
+        <f t="shared" ref="H4:H14" si="1">E4/31*F4+G4</f>
         <v>13266.129032258066</v>
       </c>
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="20"/>
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -996,18 +1032,18 @@
       <c r="F5" s="7">
         <v>16</v>
       </c>
-      <c r="G5" s="14">
-        <f>E5/31*1.5</f>
+      <c r="G5" s="11">
+        <f t="shared" si="0"/>
         <v>1137.0967741935485</v>
       </c>
-      <c r="H5" s="29">
-        <f t="shared" si="0"/>
+      <c r="H5" s="17">
+        <f t="shared" si="1"/>
         <v>13266.129032258066</v>
       </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
+      <c r="A6" s="20"/>
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -1023,18 +1059,18 @@
       <c r="F6" s="7">
         <v>16</v>
       </c>
-      <c r="G6" s="14">
-        <f>E6/31*1.5</f>
+      <c r="G6" s="11">
+        <f t="shared" si="0"/>
         <v>1137.0967741935485</v>
       </c>
-      <c r="H6" s="29">
-        <f t="shared" si="0"/>
+      <c r="H6" s="17">
+        <f t="shared" si="1"/>
         <v>13266.129032258066</v>
       </c>
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
+      <c r="A7" s="20"/>
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -1050,74 +1086,74 @@
       <c r="F7" s="7">
         <v>16</v>
       </c>
-      <c r="G7" s="14">
-        <f>E7/31*1.5</f>
+      <c r="G7" s="11">
+        <f t="shared" si="0"/>
         <v>991.93548387096769</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="17">
+        <f t="shared" si="1"/>
+        <v>11572.58064516129</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="9">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9">
+        <v>20500</v>
+      </c>
+      <c r="F8" s="9">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12">
         <f t="shared" si="0"/>
+        <v>991.93548387096769</v>
+      </c>
+      <c r="H8" s="18">
+        <f t="shared" si="1"/>
         <v>11572.58064516129</v>
       </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="12">
-        <v>20500</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="E9" s="8">
+        <v>26500</v>
+      </c>
+      <c r="F9" s="8">
         <v>16</v>
       </c>
-      <c r="G8" s="15">
-        <f>E8/31*1.5</f>
-        <v>991.93548387096769</v>
-      </c>
-      <c r="H8" s="30">
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
-        <v>11572.58064516129</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="9">
-        <v>7</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="9">
-        <v>26500</v>
-      </c>
-      <c r="F9" s="9">
-        <v>16</v>
-      </c>
-      <c r="G9" s="13">
-        <f>E9/31*1.5</f>
         <v>1282.258064516129</v>
       </c>
-      <c r="H9" s="28">
-        <f t="shared" si="0"/>
+      <c r="H9" s="16">
+        <f t="shared" si="1"/>
         <v>14959.677419354839</v>
       </c>
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -1133,18 +1169,18 @@
       <c r="F10" s="7">
         <v>16</v>
       </c>
-      <c r="G10" s="14">
-        <f>E10/31*1.5</f>
+      <c r="G10" s="11">
+        <f t="shared" si="0"/>
         <v>1137.0967741935485</v>
       </c>
-      <c r="H10" s="29">
-        <f t="shared" si="0"/>
+      <c r="H10" s="17">
+        <f t="shared" si="1"/>
         <v>13266.129032258066</v>
       </c>
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -1160,18 +1196,18 @@
       <c r="F11" s="7">
         <v>16</v>
       </c>
-      <c r="G11" s="14">
-        <f t="shared" ref="G11:G14" si="1">E11/31*1.5</f>
+      <c r="G11" s="11">
+        <f t="shared" ref="G11:G14" si="2">E11/31*1.5</f>
         <v>1137.0967741935485</v>
       </c>
-      <c r="H11" s="29">
-        <f t="shared" si="0"/>
+      <c r="H11" s="17">
+        <f t="shared" si="1"/>
         <v>13266.129032258066</v>
       </c>
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -1187,18 +1223,18 @@
       <c r="F12" s="7">
         <v>16</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="11">
+        <f t="shared" si="2"/>
+        <v>1137.0967741935485</v>
+      </c>
+      <c r="H12" s="17">
         <f t="shared" si="1"/>
-        <v>1137.0967741935485</v>
-      </c>
-      <c r="H12" s="29">
-        <f t="shared" si="0"/>
         <v>13266.129032258066</v>
       </c>
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -1214,68 +1250,68 @@
       <c r="F13" s="7">
         <v>16</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="11">
+        <f t="shared" si="2"/>
+        <v>991.93548387096769</v>
+      </c>
+      <c r="H13" s="17">
         <f t="shared" si="1"/>
+        <v>11572.58064516129</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="9">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9">
+        <v>20500</v>
+      </c>
+      <c r="F14" s="9">
+        <v>16</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="2"/>
         <v>991.93548387096769</v>
       </c>
-      <c r="H13" s="29">
-        <f t="shared" si="0"/>
+      <c r="H14" s="18">
+        <f t="shared" si="1"/>
         <v>11572.58064516129</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12">
-        <v>12</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="12">
-        <v>20500</v>
-      </c>
-      <c r="F14" s="12">
-        <v>16</v>
-      </c>
-      <c r="G14" s="15">
-        <f t="shared" si="1"/>
-        <v>991.93548387096769</v>
-      </c>
-      <c r="H14" s="30">
-        <f t="shared" si="0"/>
-        <v>11572.58064516129</v>
-      </c>
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="24">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="28">
         <f>SUM(H3:H14)</f>
         <v>155806.45161290324</v>
       </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="26"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1301,63 +1337,63 @@
       <c r="I18" s="4"/>
     </row>
     <row r="19" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="16" t="s">
+      <c r="F19" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="17" t="s">
+      <c r="H19" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="8">
         <v>1</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>26500</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="8">
         <v>17</v>
       </c>
-      <c r="G20" s="13">
-        <f t="shared" ref="G20:G31" si="2">E20/31*1.5</f>
+      <c r="G20" s="10">
+        <f t="shared" ref="G20:G31" si="3">E20/31*1.5</f>
         <v>1282.258064516129</v>
       </c>
-      <c r="H20" s="28">
-        <f t="shared" ref="H20:H31" si="3">E20/31*F20+G20</f>
+      <c r="H20" s="16">
+        <f t="shared" ref="H20:H31" si="4">E20/31*F20+G20</f>
         <v>15814.516129032258</v>
       </c>
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="7">
         <v>2</v>
       </c>
@@ -1373,18 +1409,18 @@
       <c r="F21" s="7">
         <v>17</v>
       </c>
-      <c r="G21" s="14">
-        <f t="shared" si="2"/>
+      <c r="G21" s="11">
+        <f t="shared" si="3"/>
         <v>1137.0967741935485</v>
       </c>
-      <c r="H21" s="29">
-        <f t="shared" si="3"/>
+      <c r="H21" s="17">
+        <f t="shared" si="4"/>
         <v>14024.193548387098</v>
       </c>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="7">
         <v>3</v>
       </c>
@@ -1400,18 +1436,18 @@
       <c r="F22" s="7">
         <v>17</v>
       </c>
-      <c r="G22" s="14">
-        <f t="shared" si="2"/>
+      <c r="G22" s="11">
+        <f t="shared" si="3"/>
         <v>1137.0967741935485</v>
       </c>
-      <c r="H22" s="29">
-        <f t="shared" si="3"/>
+      <c r="H22" s="17">
+        <f t="shared" si="4"/>
         <v>14024.193548387098</v>
       </c>
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
+      <c r="A23" s="20"/>
       <c r="B23" s="7">
         <v>4</v>
       </c>
@@ -1427,18 +1463,18 @@
       <c r="F23" s="7">
         <v>17</v>
       </c>
-      <c r="G23" s="14">
-        <f t="shared" si="2"/>
+      <c r="G23" s="11">
+        <f t="shared" si="3"/>
         <v>1137.0967741935485</v>
       </c>
-      <c r="H23" s="29">
-        <f t="shared" si="3"/>
+      <c r="H23" s="17">
+        <f t="shared" si="4"/>
         <v>14024.193548387098</v>
       </c>
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
+      <c r="A24" s="20"/>
       <c r="B24" s="7">
         <v>5</v>
       </c>
@@ -1454,74 +1490,74 @@
       <c r="F24" s="7">
         <v>17</v>
       </c>
-      <c r="G24" s="14">
-        <f t="shared" si="2"/>
+      <c r="G24" s="11">
+        <f t="shared" si="3"/>
         <v>991.93548387096769</v>
       </c>
-      <c r="H24" s="29">
+      <c r="H24" s="17">
+        <f t="shared" si="4"/>
+        <v>12233.870967741936</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="9">
+        <v>6</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="9">
+        <v>20500</v>
+      </c>
+      <c r="F25" s="9">
+        <v>17</v>
+      </c>
+      <c r="G25" s="12">
         <f t="shared" si="3"/>
+        <v>991.93548387096769</v>
+      </c>
+      <c r="H25" s="18">
+        <f t="shared" si="4"/>
         <v>12233.870967741936</v>
       </c>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12">
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="8">
+        <v>7</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="12">
-        <v>20500</v>
-      </c>
-      <c r="F25" s="12">
+      <c r="E26" s="8">
+        <v>26500</v>
+      </c>
+      <c r="F26" s="8">
         <v>17</v>
       </c>
-      <c r="G25" s="15">
-        <f t="shared" si="2"/>
-        <v>991.93548387096769</v>
-      </c>
-      <c r="H25" s="30">
+      <c r="G26" s="10">
         <f t="shared" si="3"/>
-        <v>12233.870967741936</v>
-      </c>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="9">
-        <v>7</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="9">
-        <v>26500</v>
-      </c>
-      <c r="F26" s="9">
-        <v>17</v>
-      </c>
-      <c r="G26" s="13">
-        <f t="shared" si="2"/>
         <v>1282.258064516129</v>
       </c>
-      <c r="H26" s="28">
-        <f t="shared" si="3"/>
+      <c r="H26" s="16">
+        <f t="shared" si="4"/>
         <v>15814.516129032258</v>
       </c>
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
+      <c r="A27" s="20"/>
       <c r="B27" s="7">
         <v>8</v>
       </c>
@@ -1537,18 +1573,18 @@
       <c r="F27" s="7">
         <v>17</v>
       </c>
-      <c r="G27" s="14">
-        <f t="shared" si="2"/>
+      <c r="G27" s="11">
+        <f t="shared" si="3"/>
         <v>1137.0967741935485</v>
       </c>
-      <c r="H27" s="29">
-        <f t="shared" si="3"/>
+      <c r="H27" s="17">
+        <f t="shared" si="4"/>
         <v>14024.193548387098</v>
       </c>
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
+      <c r="A28" s="20"/>
       <c r="B28" s="7">
         <v>9</v>
       </c>
@@ -1564,18 +1600,18 @@
       <c r="F28" s="7">
         <v>17</v>
       </c>
-      <c r="G28" s="14">
-        <f t="shared" si="2"/>
+      <c r="G28" s="11">
+        <f t="shared" si="3"/>
         <v>1137.0967741935485</v>
       </c>
-      <c r="H28" s="29">
-        <f t="shared" si="3"/>
+      <c r="H28" s="17">
+        <f t="shared" si="4"/>
         <v>14024.193548387098</v>
       </c>
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
+      <c r="A29" s="20"/>
       <c r="B29" s="7">
         <v>10</v>
       </c>
@@ -1591,18 +1627,18 @@
       <c r="F29" s="7">
         <v>17</v>
       </c>
-      <c r="G29" s="14">
-        <f t="shared" si="2"/>
+      <c r="G29" s="11">
+        <f t="shared" si="3"/>
         <v>1137.0967741935485</v>
       </c>
-      <c r="H29" s="29">
-        <f t="shared" si="3"/>
+      <c r="H29" s="17">
+        <f t="shared" si="4"/>
         <v>14024.193548387098</v>
       </c>
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
+      <c r="A30" s="20"/>
       <c r="B30" s="7">
         <v>11</v>
       </c>
@@ -1618,67 +1654,67 @@
       <c r="F30" s="7">
         <v>17</v>
       </c>
-      <c r="G30" s="14">
-        <f t="shared" si="2"/>
+      <c r="G30" s="11">
+        <f t="shared" si="3"/>
         <v>991.93548387096769</v>
       </c>
-      <c r="H30" s="29">
+      <c r="H30" s="17">
+        <f t="shared" si="4"/>
+        <v>12233.870967741936</v>
+      </c>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21"/>
+      <c r="B31" s="9">
+        <v>12</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="9">
+        <v>20500</v>
+      </c>
+      <c r="F31" s="9">
+        <v>17</v>
+      </c>
+      <c r="G31" s="12">
         <f t="shared" si="3"/>
+        <v>991.93548387096769</v>
+      </c>
+      <c r="H31" s="18">
+        <f t="shared" si="4"/>
         <v>12233.870967741936</v>
       </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12">
-        <v>12</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="12">
-        <v>20500</v>
-      </c>
-      <c r="F31" s="12">
-        <v>17</v>
-      </c>
-      <c r="G31" s="15">
-        <f t="shared" si="2"/>
-        <v>991.93548387096769</v>
-      </c>
-      <c r="H31" s="30">
-        <f t="shared" si="3"/>
-        <v>12233.870967741936</v>
-      </c>
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="24">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="28">
         <f>SUM(H20:H31)</f>
         <v>164709.67741935485</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="25"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="29"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
@@ -1717,14 +1753,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A15:G16"/>
+    <mergeCell ref="H15:H16"/>
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="A9:A14"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="A26:A31"/>
     <mergeCell ref="A32:G33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="A15:G16"/>
-    <mergeCell ref="H15:H16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1733,14 +1769,105 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC656C70-EBF0-4789-B38A-C17CA28B4D00}">
-  <dimension ref="A1"/>
+  <dimension ref="B3:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="7.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="2">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2">
+        <v>25000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salary/Salry Labor.xlsx
+++ b/Salary/Salry Labor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Salary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27F9DA2-9186-471D-811B-8A8CD6F8B9E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4114C87-A0EA-4F03-8CD2-9C6E82C891A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
   <si>
     <t xml:space="preserve">Sr </t>
   </si>
@@ -200,13 +200,83 @@
   </si>
   <si>
     <t xml:space="preserve">Asmat </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asif Dana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechnical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Butt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rider </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweeper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shahbaz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Hamza </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accoutant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Designer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Night Guard </t>
+  </si>
+  <si>
+    <t>Shakeel Rafogar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bao Usman </t>
+  </si>
+  <si>
+    <t>Nasir Elec .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yasir Checker </t>
+  </si>
+  <si>
+    <t>Salry Sheet Staff For The Month Of July -25</t>
+  </si>
+  <si>
+    <t>Total Salry Payabel :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T. Salry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali Hamza Advance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmad Guard </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +327,47 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -266,7 +377,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -536,11 +647,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -596,6 +763,33 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -605,35 +799,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -960,7 +1207,7 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="8">
@@ -989,7 +1236,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -1016,7 +1263,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -1043,7 +1290,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -1070,7 +1317,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -1097,7 +1344,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -1124,7 +1371,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="8">
@@ -1153,7 +1400,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -1180,7 +1427,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="29"/>
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -1207,7 +1454,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -1234,7 +1481,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -1261,7 +1508,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
+      <c r="A14" s="30"/>
       <c r="B14" s="9">
         <v>12</v>
       </c>
@@ -1288,30 +1535,30 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="28">
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="19">
         <f>SUM(H3:H14)</f>
         <v>155806.45161290324</v>
       </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="30"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1364,7 +1611,7 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="8">
@@ -1393,7 +1640,7 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="7">
         <v>2</v>
       </c>
@@ -1420,7 +1667,7 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="7">
         <v>3</v>
       </c>
@@ -1447,7 +1694,7 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="7">
         <v>4</v>
       </c>
@@ -1474,7 +1721,7 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="29"/>
       <c r="B24" s="7">
         <v>5</v>
       </c>
@@ -1501,7 +1748,7 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="9">
         <v>6</v>
       </c>
@@ -1528,7 +1775,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="28" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="8">
@@ -1557,7 +1804,7 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="7">
         <v>8</v>
       </c>
@@ -1584,7 +1831,7 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="7">
         <v>9</v>
       </c>
@@ -1611,7 +1858,7 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="7">
         <v>10</v>
       </c>
@@ -1638,7 +1885,7 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="7">
         <v>11</v>
       </c>
@@ -1665,7 +1912,7 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="21"/>
+      <c r="A31" s="30"/>
       <c r="B31" s="9">
         <v>12</v>
       </c>
@@ -1692,29 +1939,29 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="28">
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="19">
         <f>SUM(H20:H31)</f>
         <v>164709.67741935485</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="29"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="20"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
@@ -1769,105 +2016,416 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC656C70-EBF0-4789-B38A-C17CA28B4D00}">
-  <dimension ref="B3:H7"/>
+  <dimension ref="B1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="7.85546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="38"/>
+    <col min="2" max="2" width="7.85546875" style="38" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="17" style="38" customWidth="1"/>
+    <col min="5" max="5" width="15" style="39" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="38" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" style="39" customWidth="1"/>
+    <col min="10" max="15" width="9" style="38"/>
+    <col min="16" max="16" width="18.42578125" style="38" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" style="38" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="38"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+    </row>
+    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="36"/>
+    </row>
+    <row r="4" spans="2:17" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E4" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F4" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G4" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I4" s="55" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="40">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C5" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="42">
+        <v>140000</v>
+      </c>
+      <c r="F5" s="41">
+        <v>15</v>
+      </c>
+      <c r="G5" s="57">
+        <f>E5/30*F5</f>
+        <v>70000</v>
+      </c>
+      <c r="H5" s="42">
+        <v>10000</v>
+      </c>
+      <c r="I5" s="43">
+        <f>G5-H5</f>
+        <v>60000</v>
+      </c>
+      <c r="P5" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="40">
+        <v>2</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D6" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E6" s="42">
         <v>120000</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F6" s="41">
+        <v>16</v>
+      </c>
+      <c r="G6" s="57">
+        <f t="shared" ref="G6:G14" si="0">E6/30*F6</f>
+        <v>64000</v>
+      </c>
+      <c r="H6" s="42">
+        <v>10000</v>
+      </c>
+      <c r="I6" s="43">
+        <f t="shared" ref="I6:I14" si="1">G6-H6</f>
+        <v>54000</v>
+      </c>
+      <c r="P6" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="40">
+        <v>3</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D7" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E7" s="42">
         <v>25000</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="F7" s="41">
+        <v>9</v>
+      </c>
+      <c r="G7" s="57">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+      <c r="H7" s="42">
+        <v>1000</v>
+      </c>
+      <c r="I7" s="43">
+        <f t="shared" si="1"/>
+        <v>6500</v>
+      </c>
+      <c r="P7" s="44" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="40">
+        <v>4</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D8" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E8" s="42">
         <v>50000</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="F8" s="41">
+        <v>16</v>
+      </c>
+      <c r="G8" s="57">
+        <f t="shared" si="0"/>
+        <v>26666.666666666668</v>
+      </c>
+      <c r="H8" s="42"/>
+      <c r="I8" s="43">
+        <f t="shared" si="1"/>
+        <v>26666.666666666668</v>
+      </c>
+      <c r="P8" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="40">
+        <v>5</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" s="42">
+        <v>35000</v>
+      </c>
+      <c r="F9" s="41">
+        <v>15</v>
+      </c>
+      <c r="G9" s="57">
+        <f t="shared" si="0"/>
+        <v>17500</v>
+      </c>
+      <c r="H9" s="42">
+        <v>15000</v>
+      </c>
+      <c r="I9" s="43">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="P9" s="44" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="40">
+        <v>6</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="42">
+        <v>20000</v>
+      </c>
+      <c r="F10" s="41">
+        <v>15</v>
+      </c>
+      <c r="G10" s="57">
+        <f>E10/30*F10</f>
+        <v>10000</v>
+      </c>
+      <c r="H10" s="42"/>
+      <c r="I10" s="43">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="P10" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="44">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="40">
+        <v>7</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D11" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E11" s="42">
         <v>25000</v>
       </c>
+      <c r="F11" s="41">
+        <v>6</v>
+      </c>
+      <c r="G11" s="57">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="P11" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q11" s="44">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="40">
+        <v>8</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="42">
+        <v>18000</v>
+      </c>
+      <c r="F12" s="41">
+        <v>5</v>
+      </c>
+      <c r="G12" s="57">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="H12" s="42">
+        <v>2000</v>
+      </c>
+      <c r="I12" s="43">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="P12" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="44">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="40">
+        <v>9</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="42">
+        <v>10000</v>
+      </c>
+      <c r="F13" s="41">
+        <v>16</v>
+      </c>
+      <c r="G13" s="57">
+        <f t="shared" si="0"/>
+        <v>5333.333333333333</v>
+      </c>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43">
+        <f t="shared" si="1"/>
+        <v>5333.333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="40">
+        <v>10</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="47">
+        <v>20000</v>
+      </c>
+      <c r="F14" s="46">
+        <v>12</v>
+      </c>
+      <c r="G14" s="57">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+      <c r="H14" s="47">
+        <v>10000</v>
+      </c>
+      <c r="I14" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="51">
+        <f>SUM(I5:I14)</f>
+        <v>171000</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="E15:H15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Salary/Salry Labor.xlsx
+++ b/Salary/Salry Labor.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mian-Industries\Salary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4114C87-A0EA-4F03-8CD2-9C6E82C891A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4873713-EB80-49CE-A939-6801D76A6A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="81">
   <si>
     <t xml:space="preserve">Sr </t>
   </si>
@@ -175,9 +175,6 @@
     <t xml:space="preserve">Advance </t>
   </si>
   <si>
-    <t xml:space="preserve">Salry Payabel </t>
-  </si>
-  <si>
     <t>Shakeel</t>
   </si>
   <si>
@@ -266,6 +263,15 @@
   </si>
   <si>
     <t xml:space="preserve">Ahmad Guard </t>
+  </si>
+  <si>
+    <t>Salry Payabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remarks </t>
+  </si>
+  <si>
+    <t>5000/- Extra Salry Of Yasir Checker</t>
   </si>
 </sst>
 </file>
@@ -274,7 +280,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -707,7 +713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -763,6 +769,61 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -817,65 +878,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="24" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1207,7 +1216,7 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="8">
@@ -1236,7 +1245,7 @@
       <c r="I3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -1263,7 +1272,7 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -1290,7 +1299,7 @@
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="7">
         <v>4</v>
       </c>
@@ -1317,7 +1326,7 @@
       <c r="I6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="7">
         <v>5</v>
       </c>
@@ -1344,7 +1353,7 @@
       <c r="I7" s="4"/>
     </row>
     <row r="8" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="49"/>
       <c r="B8" s="9">
         <v>6</v>
       </c>
@@ -1371,7 +1380,7 @@
       <c r="I8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="8">
@@ -1400,7 +1409,7 @@
       <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="7">
         <v>8</v>
       </c>
@@ -1427,7 +1436,7 @@
       <c r="I10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="7">
         <v>9</v>
       </c>
@@ -1454,7 +1463,7 @@
       <c r="I11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="48"/>
       <c r="B12" s="7">
         <v>10</v>
       </c>
@@ -1481,7 +1490,7 @@
       <c r="I12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+      <c r="A13" s="48"/>
       <c r="B13" s="7">
         <v>11</v>
       </c>
@@ -1508,7 +1517,7 @@
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="9">
         <v>12</v>
       </c>
@@ -1535,30 +1544,30 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="19">
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="38">
         <f>SUM(H3:H14)</f>
         <v>155806.45161290324</v>
       </c>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1611,7 +1620,7 @@
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="8">
@@ -1640,7 +1649,7 @@
       <c r="I20" s="4"/>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="7">
         <v>2</v>
       </c>
@@ -1667,7 +1676,7 @@
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="7">
         <v>3</v>
       </c>
@@ -1694,7 +1703,7 @@
       <c r="I22" s="4"/>
     </row>
     <row r="23" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="7">
         <v>4</v>
       </c>
@@ -1721,7 +1730,7 @@
       <c r="I23" s="4"/>
     </row>
     <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="7">
         <v>5</v>
       </c>
@@ -1748,7 +1757,7 @@
       <c r="I24" s="4"/>
     </row>
     <row r="25" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="49"/>
       <c r="B25" s="9">
         <v>6</v>
       </c>
@@ -1775,7 +1784,7 @@
       <c r="I25" s="4"/>
     </row>
     <row r="26" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="8">
@@ -1804,7 +1813,7 @@
       <c r="I26" s="4"/>
     </row>
     <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="7">
         <v>8</v>
       </c>
@@ -1831,7 +1840,7 @@
       <c r="I27" s="4"/>
     </row>
     <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
+      <c r="A28" s="48"/>
       <c r="B28" s="7">
         <v>9</v>
       </c>
@@ -1858,7 +1867,7 @@
       <c r="I28" s="4"/>
     </row>
     <row r="29" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
+      <c r="A29" s="48"/>
       <c r="B29" s="7">
         <v>10</v>
       </c>
@@ -1885,7 +1894,7 @@
       <c r="I29" s="4"/>
     </row>
     <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
+      <c r="A30" s="48"/>
       <c r="B30" s="7">
         <v>11</v>
       </c>
@@ -1912,7 +1921,7 @@
       <c r="I30" s="4"/>
     </row>
     <row r="31" spans="1:9" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+      <c r="A31" s="49"/>
       <c r="B31" s="9">
         <v>12</v>
       </c>
@@ -1939,29 +1948,29 @@
       <c r="I31" s="4"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="19">
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="38">
         <f>SUM(H20:H31)</f>
         <v>164709.67741935485</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="20"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="39"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C37" s="1" t="s">
@@ -2016,414 +2025,436 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC656C70-EBF0-4789-B38A-C17CA28B4D00}">
-  <dimension ref="B1:Q15"/>
+  <dimension ref="B1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="38"/>
-    <col min="2" max="2" width="7.85546875" style="38" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="17" style="38" customWidth="1"/>
-    <col min="5" max="5" width="15" style="39" customWidth="1"/>
-    <col min="6" max="7" width="12.7109375" style="38" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="39" customWidth="1"/>
-    <col min="9" max="9" width="16.85546875" style="39" customWidth="1"/>
-    <col min="10" max="15" width="9" style="38"/>
-    <col min="16" max="16" width="18.42578125" style="38" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" style="38" customWidth="1"/>
-    <col min="18" max="16384" width="9" style="38"/>
+    <col min="1" max="1" width="9" style="20"/>
+    <col min="2" max="2" width="7.85546875" style="20" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17" style="20" customWidth="1"/>
+    <col min="5" max="5" width="15" style="21" customWidth="1"/>
+    <col min="6" max="7" width="12.7109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="35.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="9" style="20"/>
+    <col min="17" max="17" width="18.42578125" style="20" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="20" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-    </row>
-    <row r="3" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="36"/>
-    </row>
-    <row r="4" spans="2:17" s="56" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
+    <row r="1" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B2" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="53"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="55"/>
+    </row>
+    <row r="4" spans="2:18" s="34" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="54" t="s">
+      <c r="G4" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="40">
+      <c r="I4" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="22">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="42">
+      <c r="E5" s="23">
         <v>140000</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="20">
         <v>15</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="37">
         <f>E5/30*F5</f>
         <v>70000</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="23">
         <v>10000</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="23">
         <f>G5-H5</f>
         <v>60000</v>
       </c>
-      <c r="P5" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q5" s="44">
+      <c r="J5" s="24"/>
+      <c r="Q5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R5" s="25">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="40">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="22">
         <v>2</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="42">
+      <c r="E6" s="23">
         <v>120000</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="20">
         <v>16</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="37">
         <f t="shared" ref="G6:G14" si="0">E6/30*F6</f>
         <v>64000</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="23">
         <v>10000</v>
       </c>
-      <c r="I6" s="43">
-        <f t="shared" ref="I6:I14" si="1">G6-H6</f>
-        <v>54000</v>
-      </c>
-      <c r="P6" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q6" s="44">
+      <c r="I6" s="23">
+        <f>G6-H6+5000</f>
+        <v>59000</v>
+      </c>
+      <c r="J6" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q6" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="25">
         <v>15000</v>
       </c>
     </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="40">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="22">
         <v>3</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="42">
+      <c r="E7" s="23">
         <v>25000</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="20">
         <v>9</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="37">
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="23">
         <v>1000</v>
       </c>
-      <c r="I7" s="43">
-        <f t="shared" si="1"/>
+      <c r="I7" s="23">
+        <f t="shared" ref="I6:I14" si="1">G7-H7</f>
         <v>6500</v>
       </c>
-      <c r="P7" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q7" s="44">
+      <c r="J7" s="24"/>
+      <c r="Q7" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="R7" s="25">
         <v>4000</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="40">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="22">
         <v>4</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="42">
+      <c r="E8" s="23">
         <v>50000</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="20">
         <v>16</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="37">
         <f t="shared" si="0"/>
         <v>26666.666666666668</v>
       </c>
-      <c r="H8" s="42"/>
-      <c r="I8" s="43">
+      <c r="H8" s="23"/>
+      <c r="I8" s="23">
         <f t="shared" si="1"/>
         <v>26666.666666666668</v>
       </c>
-      <c r="P8" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q8" s="44">
+      <c r="J8" s="24"/>
+      <c r="Q8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="R8" s="25">
         <v>10000</v>
       </c>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="40">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B9" s="22">
         <v>5</v>
       </c>
-      <c r="C9" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="42">
+      <c r="C9" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="23">
         <v>35000</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="20">
         <v>15</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="37">
         <f t="shared" si="0"/>
         <v>17500</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="23">
         <v>15000</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="23">
         <f t="shared" si="1"/>
         <v>2500</v>
       </c>
-      <c r="P9" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q9" s="44">
+      <c r="J9" s="24"/>
+      <c r="Q9" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="R9" s="25">
         <v>10000</v>
       </c>
     </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="40">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="22">
         <v>6</v>
       </c>
-      <c r="C10" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="42">
+      <c r="C10" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="23">
         <v>20000</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="20">
         <v>15</v>
       </c>
-      <c r="G10" s="57">
+      <c r="G10" s="37">
         <f>E10/30*F10</f>
         <v>10000</v>
       </c>
-      <c r="H10" s="42"/>
-      <c r="I10" s="43">
+      <c r="H10" s="23"/>
+      <c r="I10" s="23">
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-      <c r="P10" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q10" s="44">
+      <c r="J10" s="24"/>
+      <c r="Q10" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="25">
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B11" s="40">
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B11" s="22">
         <v>7</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="41" t="s">
+      <c r="C11" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="23">
         <v>25000</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="20">
         <v>6</v>
       </c>
-      <c r="G11" s="57">
+      <c r="G11" s="37">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="H11" s="42"/>
-      <c r="I11" s="43">
+      <c r="H11" s="23"/>
+      <c r="I11" s="23">
         <f t="shared" si="1"/>
         <v>5000</v>
       </c>
-      <c r="P11" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q11" s="44">
+      <c r="J11" s="24"/>
+      <c r="Q11" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="R11" s="25">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="40">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B12" s="22">
         <v>8</v>
       </c>
-      <c r="C12" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="41" t="s">
+      <c r="C12" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="23">
         <v>18000</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="20">
         <v>5</v>
       </c>
-      <c r="G12" s="57">
+      <c r="G12" s="37">
         <f t="shared" si="0"/>
         <v>3000</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="23">
         <v>2000</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="23">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="P12" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q12" s="44">
+      <c r="J12" s="24"/>
+      <c r="Q12" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="R12" s="25">
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="40">
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B13" s="22">
         <v>9</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="41" t="s">
+      <c r="C13" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="E13" s="42">
+      <c r="D13" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="23">
         <v>10000</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="20">
         <v>16</v>
       </c>
-      <c r="G13" s="57">
+      <c r="G13" s="37">
         <f t="shared" si="0"/>
         <v>5333.333333333333</v>
       </c>
-      <c r="H13" s="42"/>
-      <c r="I13" s="43">
+      <c r="H13" s="23"/>
+      <c r="I13" s="23">
         <f t="shared" si="1"/>
         <v>5333.333333333333</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="40">
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="2:18" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="22">
         <v>10</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="47">
+      <c r="E14" s="28">
         <v>20000</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="27">
         <v>12</v>
       </c>
-      <c r="G14" s="57">
+      <c r="G14" s="37">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="H14" s="47">
+      <c r="H14" s="28">
         <v>10000</v>
       </c>
-      <c r="I14" s="43">
+      <c r="I14" s="58">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51">
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="2:18" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="31">
         <f>SUM(I5:I14)</f>
-        <v>171000</v>
+        <v>176000</v>
+      </c>
+      <c r="J15" s="32">
+        <f>SUM(J5:J14)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B2:I3"/>
+    <mergeCell ref="B2:J3"/>
     <mergeCell ref="E15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
